--- a/biology/Zoologie/Hemidactylus_ruspolii/Hemidactylus_ruspolii.xlsx
+++ b/biology/Zoologie/Hemidactylus_ruspolii/Hemidactylus_ruspolii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemidactylus ruspolii est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemidactylus ruspolii est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Somalie, en Éthiopie et dans le nord du Kenya[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Somalie, en Éthiopie et dans le nord du Kenya.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Eugenio Ruspoli[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Eugenio Ruspoli.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1896 : A list of the reptiles and batrachians collected by the late Prince Eugenio Ruspoli in Somaliland and Gallaland in 1893. Annali del Museo civico di storia naturale di Genova, ser. 2, vol. 17, p. 5-14 (texte intégral).</t>
         </is>
